--- a/terminal/PessoasFisicas.xlsx
+++ b/terminal/PessoasFisicas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Documento</t>
   </si>
@@ -39,10 +39,13 @@
     <t>Data</t>
   </si>
   <si>
-    <t>adfasdfadsf</t>
-  </si>
-  <si>
-    <t>asdfasdf</t>
+    <t>Alander</t>
+  </si>
+  <si>
+    <t>alandermm</t>
+  </si>
+  <si>
+    <t>joao</t>
   </si>
 </sst>
 </file>
@@ -415,16 +418,13 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1">
-        <v>43043.453506944446</v>
+        <v>43045.94458333333</v>
       </c>
     </row>
   </sheetData>
